--- a/biology/Médecine/Patient/Patient.xlsx
+++ b/biology/Médecine/Patient/Patient.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, un patient est une personne physique recevant une attention médicale ou à qui est prodigué un soin.
 D'autres termes sont utilisés, comme personne soignée, bénéficiaire de soins, usager, client, sujet ou encore le néologisme actient.
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot patient est dérivé du mot latin patiens, participe présent du verbe déponent pati, signifiant « celui qui endure » ou « celui qui souffre ».
 Il existe plusieurs dénominations communes au terme « patient », dont « personne soignée », « bénéficiaire de soins », « usager » ou encore « client » employé notamment dans la culture anglophone[réf. souhaitée]. Dans la recherche médicale, le patient est parfois appelé « sujet ». On commence même à utiliser le terme d’« actient » (patient qui agit) du fait de l'évolution des patients à se renseigner par eux-mêmes et à poser de plus en plus de questions au praticien[réf. souhaitée].
@@ -545,7 +559,9 @@
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Knock ou le Triomphe de la médecine, pièce de théâtre de Jules Romains, ayant fait l'objet de plusieurs adaptations cinématographiques, qui illustre de manière humoristique les relations entre médecins et patients.</t>
         </is>
